--- a/outputs/results/results_instance_WPY_simple_voies.xlsx
+++ b/outputs/results/results_instance_WPY_simple_voies.xlsx
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>40</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.28571428571429</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
